--- a/config_11.3/fish3d_config.xlsx
+++ b/config_11.3/fish3d_config.xlsx
@@ -3040,9 +3040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X41" sqref="X41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5728,7 +5728,7 @@
         <v>0.8</v>
       </c>
       <c r="K29" s="22">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="L29" s="22">
         <v>30</v>
@@ -5820,7 +5820,7 @@
         <v>2.84</v>
       </c>
       <c r="K30" s="22">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="L30" s="22">
         <v>30</v>
@@ -5913,7 +5913,7 @@
         <v>2.77</v>
       </c>
       <c r="K31" s="22">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="L31" s="22">
         <v>30</v>
@@ -6006,7 +6006,7 @@
         <v>1.96</v>
       </c>
       <c r="K32" s="22">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="L32" s="22">
         <v>30</v>
@@ -6103,7 +6103,7 @@
         <v>2.27</v>
       </c>
       <c r="K33" s="22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L33" s="22">
         <v>30</v>
@@ -6193,7 +6193,7 @@
         <v>3</v>
       </c>
       <c r="K34" s="22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L34" s="22">
         <v>30</v>
